--- a/investigação/Regressao SVM.xlsx
+++ b/investigação/Regressao SVM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\regressao machine learning git\Diamond_Price_Prediction-Machine_Learning\investigação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08B0E9C-04C0-4ED3-8CA1-197F02FAD652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A38E8F-7058-47E0-AE14-99F17793FFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t xml:space="preserve">config </t>
   </si>
@@ -48,14 +48,66 @@
 Mean Absolute Error: 473.81734682166956
 Mean Squared Error: 801238.6107681289
 Root Mean Squared Error: 895.1193276698525</t>
+  </si>
+  <si>
+    <t>kernel = 'poly',              C = 1, 
+gamma = 'scale', 
+ epsilon = 0.1)</t>
+  </si>
+  <si>
+    <t>Score: 0.37462885211432695
+Mean Absolute Error: 1395.503690613415
+Mean Squared Error: 9988095.57596737
+Root Mean Squared Error: 3160.394844946968</t>
+  </si>
+  <si>
+    <t>kernel = 'sigmoid',              C = 1, 
+gamma = 'scale', 
+ epsilon = 0.1)</t>
+  </si>
+  <si>
+    <t>Score: -128265.47324406465
+Mean Absolute Error: 826566.9446230641
+Mean Squared Error: 2048603934296.2937
+Root Mean Squared Error: 1431294.496005729</t>
+  </si>
+  <si>
+    <t>Score: -0.9750512375842051
+Mean Absolute Error: 3947.0743293514706
+Mean Squared Error: 31544468.5849659
+Root Mean Squared Error: 5616.446259421156</t>
+  </si>
+  <si>
+    <t>kernel = 'linear',              C = 1, 
+gamma = 'scale', 
+ epsilon = 0.1)</t>
+  </si>
+  <si>
+    <t>kernel = 'rbf',              C = 1, 
+gamma = 'auto', 
+ epsilon = 0.1)</t>
+  </si>
+  <si>
+    <t>Score: 0.9498302494951725
+Mean Absolute Error: 473.80631616291487
+Mean Squared Error: 801284.5887739329
+Root Mean Squared Error: 895.1450099139987</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,12 +150,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -386,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,8 +476,53 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>